--- a/4. Honeywell/1. 资料/M6数据转换/源文件/通用版组态数据库.xlsx
+++ b/4. Honeywell/1. 资料/M6数据转换/源文件/通用版组态数据库.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DC\Desktop\M6数据转换0108\源文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\11 数据库转换\TPS 霍尼数据库\M6数据转换0115\源文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82335D5-1AB8-4B6B-8D35-111933001444}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68363037-C8CB-4232-9AF9-437FF6368F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="928" firstSheet="12" activeTab="27" xr2:uid="{CE2C89DD-14EF-46CF-A507-253C84C83A2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="928" firstSheet="12" activeTab="15" xr2:uid="{CE2C89DD-14EF-46CF-A507-253C84C83A2B}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="31" r:id="rId1"/>
@@ -40,13 +40,12 @@
     <sheet name="MIDOF3" sheetId="7" r:id="rId25"/>
     <sheet name="HILOAVG" sheetId="6" r:id="rId26"/>
     <sheet name="FLOWCOMP" sheetId="5" r:id="rId27"/>
-    <sheet name="Sheet1" sheetId="36" r:id="rId28"/>
-    <sheet name="TOTALIZR" sheetId="4" r:id="rId29"/>
-    <sheet name="MULDIV" sheetId="3" r:id="rId30"/>
-    <sheet name="SUMMER" sheetId="2" r:id="rId31"/>
-    <sheet name="MOT2" sheetId="34" r:id="rId32"/>
-    <sheet name="VAL2" sheetId="35" r:id="rId33"/>
-    <sheet name="VDTLDLAG" sheetId="1" r:id="rId34"/>
+    <sheet name="TOTALIZR" sheetId="4" r:id="rId28"/>
+    <sheet name="MULDIV" sheetId="3" r:id="rId29"/>
+    <sheet name="SUMMER" sheetId="2" r:id="rId30"/>
+    <sheet name="MOT2" sheetId="34" r:id="rId31"/>
+    <sheet name="VAL2" sheetId="35" r:id="rId32"/>
+    <sheet name="VDTLDLAG" sheetId="1" r:id="rId33"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="441">
   <si>
     <t>SN</t>
   </si>
@@ -15599,8 +15598,8 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20175,156 +20174,6 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1588D70-8AA2-4A96-A957-F8AFB6FDF7B5}">
-  <sheetPr codeName="Sheet34"/>
-  <dimension ref="A1:S4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="14" max="14" width="24.375" customWidth="1"/>
-    <col min="15" max="15" width="21.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>246</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>248</v>
-      </c>
-      <c r="I1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" t="s">
-        <v>307</v>
-      </c>
-      <c r="K1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L1" t="s">
-        <v>308</v>
-      </c>
-      <c r="M1" t="s">
-        <v>309</v>
-      </c>
-      <c r="N1" t="s">
-        <v>310</v>
-      </c>
-      <c r="O1" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>313</v>
-      </c>
-      <c r="R1" t="s">
-        <v>314</v>
-      </c>
-      <c r="S1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" t="s">
-        <v>276</v>
-      </c>
-      <c r="I2" t="s">
-        <v>315</v>
-      </c>
-      <c r="J2" t="s">
-        <v>316</v>
-      </c>
-      <c r="K2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L2" t="s">
-        <v>317</v>
-      </c>
-      <c r="M2" t="s">
-        <v>318</v>
-      </c>
-      <c r="N2" t="s">
-        <v>319</v>
-      </c>
-      <c r="O2" t="s">
-        <v>320</v>
-      </c>
-      <c r="P2" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>322</v>
-      </c>
-      <c r="R2" t="s">
-        <v>323</v>
-      </c>
-      <c r="S2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="N4" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98955F9-4ED9-494F-B993-D0AF3DB33255}">
   <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:P50"/>
@@ -20722,6 +20571,291 @@
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="P50" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2DB724-21BC-4C82-9764-0B6CA79BB3C3}">
+  <sheetPr codeName="Sheet28"/>
+  <dimension ref="A1:Y31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L1" t="s">
+        <v>337</v>
+      </c>
+      <c r="M1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>243</v>
+      </c>
+      <c r="R1" t="s">
+        <v>349</v>
+      </c>
+      <c r="S1" t="s">
+        <v>350</v>
+      </c>
+      <c r="T1" t="s">
+        <v>351</v>
+      </c>
+      <c r="U1" t="s">
+        <v>352</v>
+      </c>
+      <c r="V1" t="s">
+        <v>338</v>
+      </c>
+      <c r="W1" t="s">
+        <v>339</v>
+      </c>
+      <c r="X1" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="Y31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -29886,291 +30020,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2DB724-21BC-4C82-9764-0B6CA79BB3C3}">
-  <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:Y31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>332</v>
-      </c>
-      <c r="H1" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L1" t="s">
-        <v>337</v>
-      </c>
-      <c r="M1" t="s">
-        <v>345</v>
-      </c>
-      <c r="N1" t="s">
-        <v>346</v>
-      </c>
-      <c r="O1" t="s">
-        <v>347</v>
-      </c>
-      <c r="P1" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>243</v>
-      </c>
-      <c r="R1" t="s">
-        <v>349</v>
-      </c>
-      <c r="S1" t="s">
-        <v>350</v>
-      </c>
-      <c r="T1" t="s">
-        <v>351</v>
-      </c>
-      <c r="U1" t="s">
-        <v>352</v>
-      </c>
-      <c r="V1" t="s">
-        <v>338</v>
-      </c>
-      <c r="W1" t="s">
-        <v>339</v>
-      </c>
-      <c r="X1" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="Y3" s="1"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="Y5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="Y9" s="1"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="Y10" s="1"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="Y11" s="1"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="Y13" s="1"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="Y20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="Y22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="Y23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="Y24" s="1"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="Y25" s="1"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="Y29" s="1"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="Y30" s="1"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="Y31" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E05631-65B3-4B3E-B2A2-1B7ED22A07D4}">
   <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:Y8"/>
@@ -30321,7 +30170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C65C7E-28F3-4669-8B09-04A09CBCB80F}">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:AX2"/>
@@ -30645,7 +30494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC297D6-A0BC-4D87-A6E2-ABD4A35EC247}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:AN2"/>
@@ -30909,7 +30758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA1BE16-CED1-4477-8598-1717A45DD419}">
   <sheetPr codeName="Sheet30"/>
   <dimension ref="A1:P4"/>

--- a/4. Honeywell/1. 资料/M6数据转换/源文件/通用版组态数据库.xlsx
+++ b/4. Honeywell/1. 资料/M6数据转换/源文件/通用版组态数据库.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\11 数据库转换\TPS 霍尼数据库\M6数据转换0115\源文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\11 数据库转换\M6数据转换0226-01\源文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68363037-C8CB-4232-9AF9-437FF6368F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AB9FA5-EE76-48FE-B5AE-66B662131D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="928" firstSheet="12" activeTab="15" xr2:uid="{CE2C89DD-14EF-46CF-A507-253C84C83A2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="974" firstSheet="17" activeTab="22" xr2:uid="{CE2C89DD-14EF-46CF-A507-253C84C83A2B}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="31" r:id="rId1"/>
@@ -43,9 +43,11 @@
     <sheet name="TOTALIZR" sheetId="4" r:id="rId28"/>
     <sheet name="MULDIV" sheetId="3" r:id="rId29"/>
     <sheet name="SUMMER" sheetId="2" r:id="rId30"/>
-    <sheet name="MOT2" sheetId="34" r:id="rId31"/>
-    <sheet name="VAL2" sheetId="35" r:id="rId32"/>
-    <sheet name="VDTLDLAG" sheetId="1" r:id="rId33"/>
+    <sheet name="SUMMER_CTRL" sheetId="36" r:id="rId31"/>
+    <sheet name="TIMER" sheetId="37" r:id="rId32"/>
+    <sheet name="MOT2" sheetId="34" r:id="rId33"/>
+    <sheet name="VAL2" sheetId="35" r:id="rId34"/>
+    <sheet name="VDTLDLAG" sheetId="1" r:id="rId35"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="644">
   <si>
     <t>SN</t>
   </si>
@@ -1386,13 +1388,625 @@
   </si>
   <si>
     <t>关过程时间设定</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>PVAUTOST</t>
+  </si>
+  <si>
+    <t>SELXINP</t>
+  </si>
+  <si>
+    <t>PVEQN</t>
+  </si>
+  <si>
+    <t>CVEUHI</t>
+  </si>
+  <si>
+    <t>CVEULO</t>
+  </si>
+  <si>
+    <t>XEUHI</t>
+  </si>
+  <si>
+    <t>XEULO</t>
+  </si>
+  <si>
+    <t>输入1</t>
+  </si>
+  <si>
+    <t>输入2</t>
+  </si>
+  <si>
+    <t>输入3</t>
+  </si>
+  <si>
+    <t>选择输出</t>
+  </si>
+  <si>
+    <t>输出状态0-坏1-好</t>
+  </si>
+  <si>
+    <t>被选参数号1-4</t>
+  </si>
+  <si>
+    <t>选择输入1标记</t>
+  </si>
+  <si>
+    <t>选择输入2标记</t>
+  </si>
+  <si>
+    <t>选择输入3标记</t>
+  </si>
+  <si>
+    <t>选择输入4标记</t>
+  </si>
+  <si>
+    <t>模式选择0-EQA,1-EQB</t>
+  </si>
+  <si>
+    <t>输出高限</t>
+  </si>
+  <si>
+    <t>输出低限</t>
+  </si>
+  <si>
+    <t>输入高限</t>
+  </si>
+  <si>
+    <t>输入低限</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P1STS</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P2STS</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P3STS</t>
+  </si>
+  <si>
+    <t>PVCALC</t>
+  </si>
+  <si>
+    <t>STGN</t>
+  </si>
+  <si>
+    <t>输入1状态0-好</t>
+  </si>
+  <si>
+    <t>输入2状态0-好</t>
+  </si>
+  <si>
+    <t>输入3状态0-好</t>
+  </si>
+  <si>
+    <t>输出</t>
+  </si>
+  <si>
+    <t>输出状态0-好</t>
+  </si>
+  <si>
+    <t>被选参数号1-3</t>
+  </si>
+  <si>
+    <t>状态好参数当前个数</t>
+  </si>
+  <si>
+    <t>模式选择0-高选1-低选2-取平均</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P4STS</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P5STS</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P6STS</t>
+  </si>
+  <si>
+    <t>FORCE1</t>
+  </si>
+  <si>
+    <t>NMIN</t>
+  </si>
+  <si>
+    <t>FRCPERM</t>
+  </si>
+  <si>
+    <t>FSELIN</t>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>输入4</t>
+  </si>
+  <si>
+    <t>输入4状态0-好</t>
+  </si>
+  <si>
+    <t>输入5</t>
+  </si>
+  <si>
+    <t>输入5状态0-好</t>
+  </si>
+  <si>
+    <t>输入6</t>
+  </si>
+  <si>
+    <t>输入6状态0-好</t>
+  </si>
+  <si>
+    <t>强制信号</t>
+  </si>
+  <si>
+    <t>被选参数号1-6</t>
+  </si>
+  <si>
+    <t>状态好参数最小个数</t>
+  </si>
+  <si>
+    <t>是否允许强制</t>
+  </si>
+  <si>
+    <t>强制选择项1-6</t>
+  </si>
+  <si>
+    <t>函数返回值</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>FSTS</t>
+  </si>
+  <si>
+    <t>PSTS</t>
+  </si>
+  <si>
+    <t>GSTS</t>
+  </si>
+  <si>
+    <t>QSTS</t>
+  </si>
+  <si>
+    <t>XSTS</t>
+  </si>
+  <si>
+    <t>TSTS</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>RQ</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>COMPTERM</t>
+  </si>
+  <si>
+    <t>PVCHAR</t>
+  </si>
+  <si>
+    <t>COMPLOLM</t>
+  </si>
+  <si>
+    <t>COMPHILM</t>
+  </si>
+  <si>
+    <t>测量的实际表压</t>
+  </si>
+  <si>
+    <t>测量或计算的比重/分子量</t>
+  </si>
+  <si>
+    <t>测量的实际水蒸气的干度系数</t>
+  </si>
+  <si>
+    <t>测量的实际水蒸气的压缩系数</t>
+  </si>
+  <si>
+    <t>测量的实际摄氏温度</t>
+  </si>
+  <si>
+    <t>未补偿的测量流量</t>
+  </si>
+  <si>
+    <t>测量流量的品质0-坏非0正常</t>
+  </si>
+  <si>
+    <t>测量的实际表压品质0-坏非0正常</t>
+  </si>
+  <si>
+    <t>测量或计算的比重/分子量品质0-坏非0正常</t>
+  </si>
+  <si>
+    <t>测量的实际水蒸气的干度系数品质0-坏非0正常</t>
+  </si>
+  <si>
+    <t>测量的实际水蒸气的压缩系数品质0-坏非0正常</t>
+  </si>
+  <si>
+    <t>测量的实际摄氏温度品质0-坏非0正常</t>
+  </si>
+  <si>
+    <t>补偿后输出</t>
+  </si>
+  <si>
+    <t>设计的参考比重/分子量</t>
+  </si>
+  <si>
+    <t>设计压力（绝压）</t>
+  </si>
+  <si>
+    <t>设计的水蒸气干度</t>
+  </si>
+  <si>
+    <t>设计温度（绝对温度）</t>
+  </si>
+  <si>
+    <t>压力零点参考,与P的单位一致进行调整</t>
+  </si>
+  <si>
+    <t>绝对温度转换因数</t>
+  </si>
+  <si>
+    <t>参考蒸汽压缩系数</t>
+  </si>
+  <si>
+    <t>刻度因子</t>
+  </si>
+  <si>
+    <t>校正常量1</t>
+  </si>
+  <si>
+    <t>校正常量2</t>
+  </si>
+  <si>
+    <t>补偿项</t>
+  </si>
+  <si>
+    <t>补偿公式选择0-4</t>
+  </si>
+  <si>
+    <t>FALSE-Linear线性 TRUE-Sqrroot开方</t>
+  </si>
+  <si>
+    <t>补偿项低限</t>
+  </si>
+  <si>
+    <t>补偿项高限</t>
+  </si>
+  <si>
+    <t>比例因子</t>
+  </si>
+  <si>
+    <t>输入1比例因子</t>
+  </si>
+  <si>
+    <t>输入2比例因子</t>
+  </si>
+  <si>
+    <t>输入3比例因子</t>
+  </si>
+  <si>
+    <t>偏置</t>
+  </si>
+  <si>
+    <t>输入1偏置</t>
+  </si>
+  <si>
+    <t>输入2偏置</t>
+  </si>
+  <si>
+    <t>输入3偏置</t>
+  </si>
+  <si>
+    <t>模式选择0-A,1-B,2-C,3-D,4-E</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>质量 0-好</t>
+  </si>
+  <si>
+    <t>输入数量</t>
+  </si>
+  <si>
+    <t>输入4比例因子</t>
+  </si>
+  <si>
+    <t>输入量程下限</t>
+  </si>
+  <si>
+    <t>输入量程上限</t>
+  </si>
+  <si>
+    <t>COMMAND</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>TIMEBASE</t>
+  </si>
+  <si>
+    <t>STARTTIME</t>
+  </si>
+  <si>
+    <t>CURTIME</t>
+  </si>
+  <si>
+    <t>PRECOMM</t>
+  </si>
+  <si>
+    <t>TEMSP</t>
+  </si>
+  <si>
+    <t>SPC</t>
+  </si>
+  <si>
+    <t>SFLAG</t>
+  </si>
+  <si>
+    <t>TFLAG</t>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>指令:1-启动 2-停止 3-复位 4-重启动</t>
+  </si>
+  <si>
+    <t>输出状态:ON-时间到 OFF-时间未到</t>
+  </si>
+  <si>
+    <t>当前运行时间</t>
+  </si>
+  <si>
+    <t>剩余时间</t>
+  </si>
+  <si>
+    <t>计时器状态:0-停止 1-运行中</t>
+  </si>
+  <si>
+    <t>SP时间量纲：0-秒 1-分钟</t>
+  </si>
+  <si>
+    <t>采集周期 MS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>输入数量2~6</t>
+  </si>
+  <si>
+    <t>输入5比例因子</t>
+  </si>
+  <si>
+    <t>输入6比例因子</t>
+  </si>
+  <si>
+    <t>模式选择0-A,1-B</t>
+  </si>
+  <si>
+    <t>PVEUHI</t>
+  </si>
+  <si>
+    <t>PVEULO</t>
+  </si>
+  <si>
+    <t>量程上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>量程下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVEXEUHI</t>
+  </si>
+  <si>
+    <t>PVEXEULO</t>
+  </si>
+  <si>
+    <t>输入高限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP1</t>
+  </si>
+  <si>
+    <t>NRATE</t>
+  </si>
+  <si>
+    <t>NLOC</t>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>FIRSTFLAG</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>延时时间,min</t>
+  </si>
+  <si>
+    <t>采样时间,程序的扫描周期,S</t>
+  </si>
+  <si>
+    <t>P1延时TD后的值</t>
+  </si>
+  <si>
+    <t>数据表移位因子</t>
+  </si>
+  <si>
+    <t>数据表使用区域大小</t>
+  </si>
+  <si>
+    <t>间隔的计数器</t>
+  </si>
+  <si>
+    <t>第一次运行标记</t>
+  </si>
+  <si>
+    <t>循环参数</t>
+  </si>
+  <si>
+    <t>OROPT</t>
+  </si>
+  <si>
+    <t>CTLEQN</t>
+  </si>
+  <si>
+    <t>BYPASS</t>
+  </si>
+  <si>
+    <t>BYPASS1</t>
+  </si>
+  <si>
+    <t>BYPASS2</t>
+  </si>
+  <si>
+    <t>BYPASS3</t>
+  </si>
+  <si>
+    <t>BYPASS4</t>
+  </si>
+  <si>
+    <t>OROFFSET</t>
+  </si>
+  <si>
+    <t>X1比例作用</t>
+  </si>
+  <si>
+    <t>X2比例作用</t>
+  </si>
+  <si>
+    <t>X3比例作用</t>
+  </si>
+  <si>
+    <t>X4比例作用</t>
+  </si>
+  <si>
+    <t>超驰选项：0-未被选中输入不跟踪被选值 1-未被选中输入跟踪被选值</t>
+  </si>
+  <si>
+    <t>模式选择：0-高选 1-低选</t>
+  </si>
+  <si>
+    <t>输入旁路是否使能:ON允许旁路输入；OFF不允许旁路输入</t>
+  </si>
+  <si>
+    <t>输入1旁路开关</t>
+  </si>
+  <si>
+    <t>输入2旁路开关</t>
+  </si>
+  <si>
+    <t>输入3旁路开关</t>
+  </si>
+  <si>
+    <t>输入4旁路开关</t>
+  </si>
+  <si>
+    <t>未旁路参数当前个数</t>
+  </si>
+  <si>
+    <t>超驰偏移参数:控制未被选中值的跟踪值</t>
+  </si>
+  <si>
+    <t>输入个数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1407,6 +2021,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -15598,7 +16218,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -18322,7 +18942,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD61"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18757,15 +19377,15 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF5DF41-7E68-4203-BD06-2696D39D705D}">
   <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:AF47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -18785,49 +19405,85 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="H1" t="s">
-        <v>333</v>
+        <v>466</v>
       </c>
       <c r="I1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J1" t="s">
+        <v>480</v>
+      </c>
+      <c r="K1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L1" t="s">
+        <v>443</v>
+      </c>
+      <c r="M1" t="s">
         <v>334</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>335</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>336</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>337</v>
       </c>
-      <c r="M1" t="s">
-        <v>341</v>
-      </c>
-      <c r="N1" t="s">
-        <v>342</v>
-      </c>
-      <c r="O1" t="s">
-        <v>343</v>
-      </c>
-      <c r="P1" t="s">
-        <v>344</v>
-      </c>
       <c r="Q1" t="s">
-        <v>338</v>
+        <v>622</v>
       </c>
       <c r="R1" t="s">
-        <v>339</v>
+        <v>623</v>
       </c>
       <c r="S1" t="s">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="T1" t="s">
+        <v>624</v>
+      </c>
+      <c r="U1" t="s">
+        <v>625</v>
+      </c>
+      <c r="V1" t="s">
+        <v>626</v>
+      </c>
+      <c r="W1" t="s">
+        <v>627</v>
+      </c>
+      <c r="X1" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>446</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AF1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -18846,73 +19502,145 @@
       <c r="F2" t="s">
         <v>86</v>
       </c>
+      <c r="G2" t="s">
+        <v>630</v>
+      </c>
+      <c r="H2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I2" t="s">
+        <v>632</v>
+      </c>
+      <c r="J2" t="s">
+        <v>633</v>
+      </c>
+      <c r="K2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L2" t="s">
+        <v>454</v>
+      </c>
+      <c r="M2" t="s">
+        <v>449</v>
+      </c>
+      <c r="N2" t="s">
+        <v>450</v>
+      </c>
+      <c r="O2" t="s">
+        <v>451</v>
+      </c>
+      <c r="P2" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>634</v>
+      </c>
+      <c r="R2" t="s">
+        <v>635</v>
+      </c>
       <c r="T2" t="s">
+        <v>636</v>
+      </c>
+      <c r="U2" t="s">
+        <v>637</v>
+      </c>
+      <c r="V2" t="s">
+        <v>638</v>
+      </c>
+      <c r="W2" t="s">
+        <v>639</v>
+      </c>
+      <c r="X2" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>569</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>570</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>643</v>
+      </c>
+      <c r="AF2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -19107,15 +19835,15 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5B1C8-93DE-4EEA-BB0B-A1D1F6DCEB59}">
   <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1:T71"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD72"/>
+      <selection activeCell="U2" sqref="U2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -19135,49 +19863,58 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="J1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K1" t="s">
-        <v>336</v>
+        <v>441</v>
       </c>
       <c r="L1" t="s">
-        <v>337</v>
+        <v>442</v>
       </c>
       <c r="M1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N1" t="s">
         <v>341</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>342</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>343</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>344</v>
       </c>
-      <c r="Q1" t="s">
-        <v>338</v>
-      </c>
       <c r="R1" t="s">
-        <v>339</v>
+        <v>444</v>
       </c>
       <c r="S1" t="s">
-        <v>340</v>
+        <v>445</v>
       </c>
       <c r="T1" t="s">
+        <v>446</v>
+      </c>
+      <c r="U1" t="s">
+        <v>447</v>
+      </c>
+      <c r="V1" t="s">
+        <v>448</v>
+      </c>
+      <c r="W1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -19196,85 +19933,133 @@
       <c r="F2" t="s">
         <v>86</v>
       </c>
+      <c r="G2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H2" t="s">
+        <v>450</v>
+      </c>
+      <c r="I2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L2" t="s">
+        <v>453</v>
+      </c>
+      <c r="M2" t="s">
+        <v>454</v>
+      </c>
+      <c r="N2" t="s">
+        <v>455</v>
+      </c>
+      <c r="O2" t="s">
+        <v>456</v>
+      </c>
+      <c r="P2" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>458</v>
+      </c>
+      <c r="R2" t="s">
+        <v>459</v>
+      </c>
+      <c r="S2" t="s">
+        <v>460</v>
+      </c>
       <c r="T2" t="s">
+        <v>461</v>
+      </c>
+      <c r="U2" t="s">
+        <v>462</v>
+      </c>
+      <c r="V2" t="s">
+        <v>463</v>
+      </c>
+      <c r="W2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -19567,15 +20352,15 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB66709B-20EA-4124-8998-2CE78163AEA8}">
   <sheetPr codeName="Sheet24"/>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD30"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -19595,37 +20380,43 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="H1" t="s">
-        <v>333</v>
+        <v>465</v>
       </c>
       <c r="I1" t="s">
-        <v>334</v>
+        <v>466</v>
       </c>
       <c r="J1" t="s">
-        <v>335</v>
+        <v>467</v>
       </c>
       <c r="K1" t="s">
-        <v>336</v>
+        <v>468</v>
       </c>
       <c r="L1" t="s">
-        <v>337</v>
+        <v>469</v>
       </c>
       <c r="M1" t="s">
-        <v>338</v>
+        <v>470</v>
       </c>
       <c r="N1" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="O1" t="s">
-        <v>340</v>
+        <v>443</v>
       </c>
       <c r="P1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>444</v>
+      </c>
+      <c r="R1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -19644,92 +20435,125 @@
       <c r="F2" t="s">
         <v>86</v>
       </c>
+      <c r="G2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J2" t="s">
+        <v>473</v>
+      </c>
+      <c r="K2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L2" t="s">
+        <v>474</v>
+      </c>
+      <c r="M2" t="s">
+        <v>475</v>
+      </c>
+      <c r="N2" t="s">
+        <v>476</v>
+      </c>
+      <c r="O2" t="s">
+        <v>477</v>
+      </c>
       <c r="P2" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>479</v>
+      </c>
+      <c r="R2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="F3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="F4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="F5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="F6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="F12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="F13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="F14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -19809,15 +20633,18 @@
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0E7D35-50E8-4B17-B684-14858CB683D9}">
   <sheetPr codeName="Sheet25"/>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD20"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="31" max="33" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -19837,37 +20664,88 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="H1" t="s">
-        <v>333</v>
+        <v>465</v>
       </c>
       <c r="I1" t="s">
-        <v>334</v>
+        <v>466</v>
       </c>
       <c r="J1" t="s">
-        <v>335</v>
+        <v>467</v>
       </c>
       <c r="K1" t="s">
-        <v>336</v>
+        <v>468</v>
       </c>
       <c r="L1" t="s">
-        <v>337</v>
+        <v>469</v>
       </c>
       <c r="M1" t="s">
-        <v>338</v>
+        <v>480</v>
       </c>
       <c r="N1" t="s">
-        <v>339</v>
+        <v>481</v>
       </c>
       <c r="O1" t="s">
-        <v>340</v>
+        <v>482</v>
       </c>
       <c r="P1" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>484</v>
+      </c>
+      <c r="R1" t="s">
+        <v>485</v>
+      </c>
+      <c r="S1" t="s">
+        <v>486</v>
+      </c>
+      <c r="T1" t="s">
+        <v>470</v>
+      </c>
+      <c r="U1" t="s">
+        <v>442</v>
+      </c>
+      <c r="V1" t="s">
+        <v>443</v>
+      </c>
+      <c r="W1" t="s">
+        <v>487</v>
+      </c>
+      <c r="X1" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AD1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>605</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -19886,69 +20764,147 @@
       <c r="F2" t="s">
         <v>86</v>
       </c>
+      <c r="G2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J2" t="s">
+        <v>473</v>
+      </c>
+      <c r="K2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L2" t="s">
+        <v>474</v>
+      </c>
+      <c r="M2" t="s">
+        <v>491</v>
+      </c>
+      <c r="N2" t="s">
+        <v>492</v>
+      </c>
+      <c r="O2" t="s">
+        <v>493</v>
+      </c>
       <c r="P2" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>495</v>
+      </c>
+      <c r="R2" t="s">
+        <v>496</v>
+      </c>
+      <c r="S2" t="s">
+        <v>497</v>
+      </c>
+      <c r="T2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U2" t="s">
+        <v>476</v>
+      </c>
+      <c r="V2" t="s">
+        <v>498</v>
+      </c>
+      <c r="W2" t="s">
+        <v>499</v>
+      </c>
+      <c r="X2" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>501</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>502</v>
+      </c>
+      <c r="AC2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="AD2" t="s">
+        <v>603</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>604</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>607</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="F4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="F5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="F6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="F7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="F8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="F10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="P11" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19956,15 +20912,15 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F316E1E1-928A-47EF-B285-2B40A1CFC448}">
   <sheetPr codeName="Sheet26"/>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD28"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -19984,37 +20940,97 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>332</v>
+        <v>503</v>
       </c>
       <c r="H1" t="s">
-        <v>333</v>
+        <v>504</v>
       </c>
       <c r="I1" t="s">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>335</v>
+        <v>505</v>
       </c>
       <c r="K1" t="s">
-        <v>336</v>
+        <v>506</v>
       </c>
       <c r="L1" t="s">
-        <v>337</v>
+        <v>507</v>
       </c>
       <c r="M1" t="s">
-        <v>338</v>
+        <v>508</v>
       </c>
       <c r="N1" t="s">
-        <v>339</v>
+        <v>509</v>
       </c>
       <c r="O1" t="s">
-        <v>340</v>
+        <v>510</v>
       </c>
       <c r="P1" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>512</v>
+      </c>
+      <c r="R1" t="s">
+        <v>513</v>
+      </c>
+      <c r="S1" t="s">
+        <v>470</v>
+      </c>
+      <c r="T1" t="s">
+        <v>442</v>
+      </c>
+      <c r="U1" t="s">
+        <v>514</v>
+      </c>
+      <c r="V1" t="s">
+        <v>515</v>
+      </c>
+      <c r="W1" t="s">
+        <v>516</v>
+      </c>
+      <c r="X1" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>518</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -20033,102 +21049,189 @@
       <c r="F2" t="s">
         <v>86</v>
       </c>
+      <c r="G2" t="s">
+        <v>528</v>
+      </c>
+      <c r="H2" t="s">
+        <v>529</v>
+      </c>
+      <c r="I2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J2" t="s">
+        <v>531</v>
+      </c>
+      <c r="K2" t="s">
+        <v>532</v>
+      </c>
+      <c r="L2" t="s">
+        <v>533</v>
+      </c>
+      <c r="M2" t="s">
+        <v>534</v>
+      </c>
+      <c r="N2" t="s">
+        <v>535</v>
+      </c>
+      <c r="O2" t="s">
+        <v>536</v>
+      </c>
       <c r="P2" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>538</v>
+      </c>
+      <c r="R2" t="s">
+        <v>539</v>
+      </c>
+      <c r="S2" t="s">
+        <v>540</v>
+      </c>
+      <c r="T2" t="s">
+        <v>476</v>
+      </c>
+      <c r="U2" t="s">
+        <v>541</v>
+      </c>
+      <c r="V2" t="s">
+        <v>542</v>
+      </c>
+      <c r="W2" t="s">
+        <v>543</v>
+      </c>
+      <c r="X2" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>545</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>547</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>548</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>549</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>551</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>552</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>553</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>554</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="F3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="F4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="F5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="F6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="F7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="F8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="F10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="F11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="F12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="F13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="F14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="F15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -20584,7 +21687,7 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD33"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20609,60 +21712,57 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>332</v>
+        <v>441</v>
       </c>
       <c r="H1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K1" t="s">
-        <v>336</v>
+        <v>243</v>
       </c>
       <c r="L1" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="M1" t="s">
+        <v>350</v>
+      </c>
+      <c r="N1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O1" t="s">
         <v>345</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>346</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>347</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>348</v>
       </c>
-      <c r="Q1" t="s">
-        <v>243</v>
-      </c>
-      <c r="R1" t="s">
-        <v>349</v>
-      </c>
       <c r="S1" t="s">
-        <v>350</v>
+        <v>444</v>
       </c>
       <c r="T1" t="s">
-        <v>351</v>
+        <v>445</v>
       </c>
       <c r="U1" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="V1" t="s">
-        <v>338</v>
+        <v>447</v>
       </c>
       <c r="W1" t="s">
-        <v>339</v>
+        <v>448</v>
       </c>
       <c r="X1" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -20685,7 +21785,58 @@
       <c r="F2" t="s">
         <v>86</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="G2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H2" t="s">
+        <v>449</v>
+      </c>
+      <c r="I2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K2" t="s">
+        <v>556</v>
+      </c>
+      <c r="L2" t="s">
+        <v>557</v>
+      </c>
+      <c r="M2" t="s">
+        <v>558</v>
+      </c>
+      <c r="N2" t="s">
+        <v>559</v>
+      </c>
+      <c r="O2" t="s">
+        <v>560</v>
+      </c>
+      <c r="P2" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>562</v>
+      </c>
+      <c r="R2" t="s">
+        <v>563</v>
+      </c>
+      <c r="S2" t="s">
+        <v>564</v>
+      </c>
+      <c r="T2" t="s">
+        <v>460</v>
+      </c>
+      <c r="U2" t="s">
+        <v>461</v>
+      </c>
+      <c r="V2" t="s">
+        <v>462</v>
+      </c>
+      <c r="W2" t="s">
+        <v>463</v>
+      </c>
+      <c r="X2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -30022,15 +31173,15 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E05631-65B3-4B3E-B2A2-1B7ED22A07D4}">
   <sheetPr codeName="Sheet29"/>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD15"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -30050,64 +31201,82 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="H1" t="s">
-        <v>333</v>
+        <v>465</v>
       </c>
       <c r="I1" t="s">
-        <v>334</v>
+        <v>466</v>
       </c>
       <c r="J1" t="s">
-        <v>335</v>
+        <v>467</v>
       </c>
       <c r="K1" t="s">
-        <v>336</v>
+        <v>468</v>
       </c>
       <c r="L1" t="s">
-        <v>337</v>
+        <v>469</v>
       </c>
       <c r="M1" t="s">
-        <v>345</v>
+        <v>480</v>
       </c>
       <c r="N1" t="s">
-        <v>346</v>
+        <v>481</v>
       </c>
       <c r="O1" t="s">
-        <v>347</v>
+        <v>482</v>
       </c>
       <c r="P1" t="s">
-        <v>348</v>
+        <v>483</v>
       </c>
       <c r="Q1" t="s">
-        <v>243</v>
+        <v>484</v>
       </c>
       <c r="R1" t="s">
-        <v>349</v>
+        <v>485</v>
       </c>
       <c r="S1" t="s">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="T1" t="s">
-        <v>351</v>
+        <v>442</v>
       </c>
       <c r="U1" t="s">
-        <v>352</v>
+        <v>591</v>
       </c>
       <c r="V1" t="s">
-        <v>338</v>
+        <v>521</v>
       </c>
       <c r="W1" t="s">
-        <v>339</v>
+        <v>522</v>
       </c>
       <c r="X1" t="s">
-        <v>340</v>
+        <v>523</v>
       </c>
       <c r="Y1" t="s">
+        <v>592</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>596</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -30126,41 +31295,113 @@
       <c r="F2" t="s">
         <v>86</v>
       </c>
+      <c r="G2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J2" t="s">
+        <v>473</v>
+      </c>
+      <c r="K2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L2" t="s">
+        <v>474</v>
+      </c>
+      <c r="M2" t="s">
+        <v>491</v>
+      </c>
+      <c r="N2" t="s">
+        <v>492</v>
+      </c>
+      <c r="O2" t="s">
+        <v>493</v>
+      </c>
+      <c r="P2" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>495</v>
+      </c>
+      <c r="R2" t="s">
+        <v>496</v>
+      </c>
+      <c r="S2" t="s">
+        <v>475</v>
+      </c>
+      <c r="T2" t="s">
+        <v>476</v>
+      </c>
+      <c r="U2" t="s">
+        <v>597</v>
+      </c>
+      <c r="V2" t="s">
+        <v>556</v>
+      </c>
+      <c r="W2" t="s">
+        <v>557</v>
+      </c>
+      <c r="X2" t="s">
+        <v>558</v>
+      </c>
       <c r="Y2" t="s">
+        <v>559</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>599</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>560</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>600</v>
+      </c>
+      <c r="AE2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
@@ -30171,6 +31412,306 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9F0C65-B01E-4927-9B7A-8CA916F99F92}">
+  <sheetPr codeName="Sheet34"/>
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L1" t="s">
+        <v>337</v>
+      </c>
+      <c r="M1" t="s">
+        <v>565</v>
+      </c>
+      <c r="N1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O1" t="s">
+        <v>349</v>
+      </c>
+      <c r="P1" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>351</v>
+      </c>
+      <c r="R1" t="s">
+        <v>352</v>
+      </c>
+      <c r="S1" t="s">
+        <v>345</v>
+      </c>
+      <c r="T1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U1" t="s">
+        <v>447</v>
+      </c>
+      <c r="V1" t="s">
+        <v>446</v>
+      </c>
+      <c r="W1" t="s">
+        <v>445</v>
+      </c>
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H2" t="s">
+        <v>566</v>
+      </c>
+      <c r="I2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J2" t="s">
+        <v>450</v>
+      </c>
+      <c r="K2" t="s">
+        <v>451</v>
+      </c>
+      <c r="L2" t="s">
+        <v>491</v>
+      </c>
+      <c r="M2" t="s">
+        <v>567</v>
+      </c>
+      <c r="N2" t="s">
+        <v>556</v>
+      </c>
+      <c r="O2" t="s">
+        <v>557</v>
+      </c>
+      <c r="P2" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>559</v>
+      </c>
+      <c r="R2" t="s">
+        <v>568</v>
+      </c>
+      <c r="S2" t="s">
+        <v>560</v>
+      </c>
+      <c r="T2" t="s">
+        <v>569</v>
+      </c>
+      <c r="U2" t="s">
+        <v>570</v>
+      </c>
+      <c r="V2" t="s">
+        <v>273</v>
+      </c>
+      <c r="W2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19087924-5C9F-4663-AB8B-B7828F4FFA71}">
+  <sheetPr codeName="Sheet35"/>
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" t="s">
+        <v>573</v>
+      </c>
+      <c r="K1" t="s">
+        <v>574</v>
+      </c>
+      <c r="L1" t="s">
+        <v>575</v>
+      </c>
+      <c r="M1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N1" t="s">
+        <v>576</v>
+      </c>
+      <c r="O1" t="s">
+        <v>577</v>
+      </c>
+      <c r="P1" t="s">
+        <v>578</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>579</v>
+      </c>
+      <c r="R1" t="s">
+        <v>580</v>
+      </c>
+      <c r="S1" t="s">
+        <v>581</v>
+      </c>
+      <c r="T1" t="s">
+        <v>582</v>
+      </c>
+      <c r="U1" t="s">
+        <v>583</v>
+      </c>
+      <c r="V1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H2" t="s">
+        <v>585</v>
+      </c>
+      <c r="I2" t="s">
+        <v>586</v>
+      </c>
+      <c r="J2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K2" t="s">
+        <v>588</v>
+      </c>
+      <c r="L2" t="s">
+        <v>589</v>
+      </c>
+      <c r="M2" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>331</v>
+      </c>
+      <c r="U2" t="s">
+        <v>590</v>
+      </c>
+      <c r="V2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C65C7E-28F3-4669-8B09-04A09CBCB80F}">
   <sheetPr codeName="Sheet32"/>
   <dimension ref="A1:AX2"/>
@@ -30494,7 +32035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC297D6-A0BC-4D87-A6E2-ABD4A35EC247}">
   <sheetPr codeName="Sheet33"/>
   <dimension ref="A1:AN2"/>
@@ -30758,18 +32299,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA1BE16-CED1-4477-8598-1717A45DD419}">
   <sheetPr codeName="Sheet30"/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -30789,37 +32330,46 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>332</v>
+        <v>464</v>
       </c>
       <c r="H1" t="s">
-        <v>333</v>
+        <v>470</v>
       </c>
       <c r="I1" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
-        <v>335</v>
+        <v>521</v>
       </c>
       <c r="K1" t="s">
-        <v>336</v>
+        <v>596</v>
       </c>
       <c r="L1" t="s">
-        <v>337</v>
+        <v>583</v>
       </c>
       <c r="M1" t="s">
-        <v>338</v>
+        <v>608</v>
       </c>
       <c r="N1" t="s">
-        <v>339</v>
+        <v>609</v>
       </c>
       <c r="O1" t="s">
-        <v>340</v>
+        <v>610</v>
       </c>
       <c r="P1" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>612</v>
+      </c>
+      <c r="R1" t="s">
+        <v>613</v>
+      </c>
+      <c r="S1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -30838,17 +32388,53 @@
       <c r="F2" t="s">
         <v>86</v>
       </c>
+      <c r="G2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" t="s">
+        <v>540</v>
+      </c>
+      <c r="I2" t="s">
+        <v>614</v>
+      </c>
+      <c r="J2" t="s">
+        <v>548</v>
+      </c>
+      <c r="K2" t="s">
+        <v>560</v>
+      </c>
+      <c r="L2" t="s">
+        <v>615</v>
+      </c>
+      <c r="M2" t="s">
+        <v>616</v>
+      </c>
+      <c r="N2" t="s">
+        <v>617</v>
+      </c>
+      <c r="O2" t="s">
+        <v>618</v>
+      </c>
       <c r="P2" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>620</v>
+      </c>
+      <c r="R2" t="s">
+        <v>621</v>
+      </c>
+      <c r="S2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="P4" s="1"/>
     </row>

--- a/4. Honeywell/1. 资料/M6数据转换/源文件/通用版组态数据库.xlsx
+++ b/4. Honeywell/1. 资料/M6数据转换/源文件/通用版组态数据库.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\11 数据库转换\M6数据转换0226-01\源文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\11 数据库转换\M6数据转换0302\源文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AB9FA5-EE76-48FE-B5AE-66B662131D9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8984798B-E73B-4D12-9779-B2D916AA48FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="974" firstSheet="17" activeTab="22" xr2:uid="{CE2C89DD-14EF-46CF-A507-253C84C83A2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="974" firstSheet="17" activeTab="23" xr2:uid="{CE2C89DD-14EF-46CF-A507-253C84C83A2B}"/>
   </bookViews>
   <sheets>
     <sheet name="AI" sheetId="31" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="660">
   <si>
     <t>SN</t>
   </si>
@@ -1423,9 +1423,6 @@
     <t>输入3</t>
   </si>
   <si>
-    <t>选择输出</t>
-  </si>
-  <si>
     <t>输出状态0-坏1-好</t>
   </si>
   <si>
@@ -1445,12 +1442,6 @@
   </si>
   <si>
     <t>模式选择0-EQA,1-EQB</t>
-  </si>
-  <si>
-    <t>输出高限</t>
-  </si>
-  <si>
-    <t>输出低限</t>
   </si>
   <si>
     <t>输入高限</t>
@@ -1996,10 +1987,67 @@
     <t>未旁路参数当前个数</t>
   </si>
   <si>
-    <t>超驰偏移参数:控制未被选中值的跟踪值</t>
-  </si>
-  <si>
     <t>输入个数</t>
+  </si>
+  <si>
+    <t>OPROCLM</t>
+  </si>
+  <si>
+    <t>OUTRSEC</t>
+  </si>
+  <si>
+    <t>OPHILM</t>
+  </si>
+  <si>
+    <t>OPLOLM</t>
+  </si>
+  <si>
+    <t>输出-%</t>
+  </si>
+  <si>
+    <t>输出-工程量</t>
+  </si>
+  <si>
+    <t>计算值高限</t>
+  </si>
+  <si>
+    <t>计算值低限</t>
+  </si>
+  <si>
+    <t>计算值</t>
+  </si>
+  <si>
+    <t>输出速率限制%/min</t>
+  </si>
+  <si>
+    <t>用户不可写-根据OURTRAT计算的周期限速值</t>
+  </si>
+  <si>
+    <t>OP输出高限</t>
+  </si>
+  <si>
+    <t>OP输出低限</t>
+  </si>
+  <si>
+    <t>超驰偏移参数:0-反馈值不加偏差比例作用P 1-反馈值叠加偏差比例作用</t>
+  </si>
+  <si>
+    <t>输出量程下限--跟踪XEULO</t>
+  </si>
+  <si>
+    <t>输出量程上限--跟踪XEUHI</t>
+  </si>
+  <si>
+    <t>输出高限--跟踪XEUHI</t>
+  </si>
+  <si>
+    <t>输出低限--跟踪XEULO</t>
+  </si>
+  <si>
+    <t>OP值高限</t>
+  </si>
+  <si>
+    <t>OP值低限</t>
   </si>
 </sst>
 </file>
@@ -19377,15 +19425,15 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF5DF41-7E68-4203-BD06-2696D39D705D}">
   <sheetPr codeName="Sheet22"/>
-  <dimension ref="A1:AF47"/>
+  <dimension ref="A1:AL47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="B20:C20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -19405,85 +19453,103 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="I1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1" t="s">
+        <v>477</v>
+      </c>
+      <c r="K1" t="s">
+        <v>443</v>
+      </c>
+      <c r="L1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N1" t="s">
+        <v>334</v>
+      </c>
+      <c r="O1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>337</v>
+      </c>
+      <c r="R1" t="s">
+        <v>619</v>
+      </c>
+      <c r="S1" t="s">
+        <v>620</v>
+      </c>
+      <c r="T1" t="s">
+        <v>487</v>
+      </c>
+      <c r="U1" t="s">
+        <v>621</v>
+      </c>
+      <c r="V1" t="s">
+        <v>622</v>
+      </c>
+      <c r="W1" t="s">
+        <v>623</v>
+      </c>
+      <c r="X1" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>625</v>
+      </c>
+      <c r="Z1" t="s">
         <v>468</v>
       </c>
-      <c r="J1" t="s">
-        <v>480</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="AA1" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>446</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>445</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AG1" t="s">
         <v>441</v>
       </c>
-      <c r="L1" t="s">
-        <v>443</v>
-      </c>
-      <c r="M1" t="s">
-        <v>334</v>
-      </c>
-      <c r="N1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O1" t="s">
-        <v>336</v>
-      </c>
-      <c r="P1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>622</v>
-      </c>
-      <c r="R1" t="s">
-        <v>623</v>
-      </c>
-      <c r="S1" t="s">
-        <v>490</v>
-      </c>
-      <c r="T1" t="s">
-        <v>624</v>
-      </c>
-      <c r="U1" t="s">
-        <v>625</v>
-      </c>
-      <c r="V1" t="s">
-        <v>626</v>
-      </c>
-      <c r="W1" t="s">
-        <v>627</v>
-      </c>
-      <c r="X1" t="s">
-        <v>628</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>471</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>629</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>448</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>447</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>445</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>565</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AL1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -19503,144 +19569,162 @@
         <v>86</v>
       </c>
       <c r="G2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H2" t="s">
+        <v>628</v>
+      </c>
+      <c r="I2" t="s">
+        <v>629</v>
+      </c>
+      <c r="J2" t="s">
         <v>630</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>453</v>
+      </c>
+      <c r="L2" t="s">
+        <v>644</v>
+      </c>
+      <c r="M2" t="s">
+        <v>645</v>
+      </c>
+      <c r="N2" t="s">
+        <v>449</v>
+      </c>
+      <c r="O2" t="s">
+        <v>450</v>
+      </c>
+      <c r="P2" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>488</v>
+      </c>
+      <c r="R2" t="s">
         <v>631</v>
       </c>
-      <c r="I2" t="s">
+      <c r="S2" t="s">
         <v>632</v>
       </c>
-      <c r="J2" t="s">
+      <c r="U2" t="s">
         <v>633</v>
       </c>
-      <c r="K2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L2" t="s">
-        <v>454</v>
-      </c>
-      <c r="M2" t="s">
-        <v>449</v>
-      </c>
-      <c r="N2" t="s">
-        <v>450</v>
-      </c>
-      <c r="O2" t="s">
-        <v>451</v>
-      </c>
-      <c r="P2" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>634</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>635</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
         <v>636</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>637</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>638</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AA2" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>566</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>567</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>654</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>655</v>
+      </c>
+      <c r="AF2" t="s">
         <v>639</v>
       </c>
-      <c r="X2" t="s">
-        <v>640</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>641</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>642</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>569</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>570</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>273</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>643</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>648</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>650</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>651</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>652</v>
+      </c>
+      <c r="AL2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -19835,15 +19919,15 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA5B1C8-93DE-4EEA-BB0B-A1D1F6DCEB59}">
   <sheetPr codeName="Sheet23"/>
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -19863,58 +19947,76 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1" t="s">
         <v>334</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>335</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>336</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>337</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
+        <v>443</v>
+      </c>
+      <c r="O1" t="s">
+        <v>341</v>
+      </c>
+      <c r="P1" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R1" t="s">
+        <v>344</v>
+      </c>
+      <c r="S1" t="s">
+        <v>444</v>
+      </c>
+      <c r="T1" t="s">
+        <v>445</v>
+      </c>
+      <c r="U1" t="s">
+        <v>446</v>
+      </c>
+      <c r="V1" t="s">
+        <v>447</v>
+      </c>
+      <c r="W1" t="s">
+        <v>448</v>
+      </c>
+      <c r="X1" t="s">
         <v>441</v>
       </c>
-      <c r="L1" t="s">
-        <v>442</v>
-      </c>
-      <c r="M1" t="s">
-        <v>443</v>
-      </c>
-      <c r="N1" t="s">
-        <v>341</v>
-      </c>
-      <c r="O1" t="s">
-        <v>342</v>
-      </c>
-      <c r="P1" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R1" t="s">
-        <v>444</v>
-      </c>
-      <c r="S1" t="s">
-        <v>445</v>
-      </c>
-      <c r="T1" t="s">
-        <v>446</v>
-      </c>
-      <c r="U1" t="s">
-        <v>447</v>
-      </c>
-      <c r="V1" t="s">
-        <v>448</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AC1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -19934,132 +20036,150 @@
         <v>86</v>
       </c>
       <c r="G2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H2" t="s">
+        <v>644</v>
+      </c>
+      <c r="I2" t="s">
+        <v>645</v>
+      </c>
+      <c r="J2" t="s">
         <v>449</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>450</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>451</v>
       </c>
-      <c r="J2" t="s">
-        <v>451</v>
-      </c>
-      <c r="K2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>488</v>
+      </c>
+      <c r="N2" t="s">
         <v>453</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>454</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>455</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>456</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>457</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>458</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>656</v>
+      </c>
+      <c r="U2" t="s">
+        <v>657</v>
+      </c>
+      <c r="V2" t="s">
         <v>459</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>460</v>
       </c>
-      <c r="T2" t="s">
-        <v>461</v>
-      </c>
-      <c r="U2" t="s">
-        <v>462</v>
-      </c>
-      <c r="V2" t="s">
-        <v>463</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>649</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>659</v>
+      </c>
+      <c r="AC2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -20380,25 +20500,25 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J1" t="s">
         <v>464</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>465</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>466</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>467</v>
-      </c>
-      <c r="K1" t="s">
-        <v>468</v>
-      </c>
-      <c r="L1" t="s">
-        <v>469</v>
-      </c>
-      <c r="M1" t="s">
-        <v>470</v>
       </c>
       <c r="N1" t="s">
         <v>442</v>
@@ -20407,7 +20527,7 @@
         <v>443</v>
       </c>
       <c r="P1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q1" t="s">
         <v>444</v>
@@ -20439,34 +20559,34 @@
         <v>449</v>
       </c>
       <c r="H2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I2" t="s">
         <v>450</v>
       </c>
       <c r="J2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K2" t="s">
         <v>451</v>
       </c>
       <c r="L2" t="s">
+        <v>471</v>
+      </c>
+      <c r="M2" t="s">
+        <v>472</v>
+      </c>
+      <c r="N2" t="s">
+        <v>473</v>
+      </c>
+      <c r="O2" t="s">
         <v>474</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>475</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>476</v>
-      </c>
-      <c r="O2" t="s">
-        <v>477</v>
-      </c>
-      <c r="P2" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>479</v>
       </c>
       <c r="R2" t="s">
         <v>116</v>
@@ -20664,46 +20784,46 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J1" t="s">
         <v>464</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>465</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>466</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>477</v>
+      </c>
+      <c r="N1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O1" t="s">
+        <v>479</v>
+      </c>
+      <c r="P1" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>481</v>
+      </c>
+      <c r="R1" t="s">
+        <v>482</v>
+      </c>
+      <c r="S1" t="s">
+        <v>483</v>
+      </c>
+      <c r="T1" t="s">
         <v>467</v>
-      </c>
-      <c r="K1" t="s">
-        <v>468</v>
-      </c>
-      <c r="L1" t="s">
-        <v>469</v>
-      </c>
-      <c r="M1" t="s">
-        <v>480</v>
-      </c>
-      <c r="N1" t="s">
-        <v>481</v>
-      </c>
-      <c r="O1" t="s">
-        <v>482</v>
-      </c>
-      <c r="P1" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>484</v>
-      </c>
-      <c r="R1" t="s">
-        <v>485</v>
-      </c>
-      <c r="S1" t="s">
-        <v>486</v>
-      </c>
-      <c r="T1" t="s">
-        <v>470</v>
       </c>
       <c r="U1" t="s">
         <v>442</v>
@@ -20712,37 +20832,37 @@
         <v>443</v>
       </c>
       <c r="W1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="X1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Y1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Z1" t="s">
         <v>444</v>
       </c>
       <c r="AA1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AB1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="AC1" t="s">
         <v>53</v>
       </c>
       <c r="AD1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AE1" t="s">
+        <v>599</v>
+      </c>
+      <c r="AF1" t="s">
         <v>602</v>
       </c>
-      <c r="AF1" t="s">
-        <v>605</v>
-      </c>
       <c r="AG1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
@@ -20768,82 +20888,82 @@
         <v>449</v>
       </c>
       <c r="H2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I2" t="s">
         <v>450</v>
       </c>
       <c r="J2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K2" t="s">
         <v>451</v>
       </c>
       <c r="L2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M2" t="s">
+        <v>488</v>
+      </c>
+      <c r="N2" t="s">
+        <v>489</v>
+      </c>
+      <c r="O2" t="s">
+        <v>490</v>
+      </c>
+      <c r="P2" t="s">
         <v>491</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>492</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>493</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>494</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
+        <v>472</v>
+      </c>
+      <c r="U2" t="s">
+        <v>473</v>
+      </c>
+      <c r="V2" t="s">
         <v>495</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>496</v>
       </c>
-      <c r="S2" t="s">
+      <c r="X2" t="s">
         <v>497</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Y2" t="s">
+        <v>498</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>476</v>
+      </c>
+      <c r="AA2" t="s">
         <v>475</v>
       </c>
-      <c r="U2" t="s">
-        <v>476</v>
-      </c>
-      <c r="V2" t="s">
-        <v>498</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="AB2" t="s">
         <v>499</v>
-      </c>
-      <c r="X2" t="s">
-        <v>500</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>501</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>502</v>
       </c>
       <c r="AC2" t="s">
         <v>116</v>
       </c>
       <c r="AD2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AE2" t="s">
+        <v>601</v>
+      </c>
+      <c r="AF2" t="s">
         <v>604</v>
       </c>
-      <c r="AF2" t="s">
-        <v>607</v>
-      </c>
       <c r="AG2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -20940,91 +21060,91 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I1" t="s">
         <v>77</v>
       </c>
       <c r="J1" t="s">
+        <v>502</v>
+      </c>
+      <c r="K1" t="s">
+        <v>503</v>
+      </c>
+      <c r="L1" t="s">
+        <v>504</v>
+      </c>
+      <c r="M1" t="s">
         <v>505</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>506</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>507</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>508</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>509</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>510</v>
       </c>
-      <c r="P1" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>512</v>
-      </c>
-      <c r="R1" t="s">
-        <v>513</v>
-      </c>
       <c r="S1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="T1" t="s">
         <v>442</v>
       </c>
       <c r="U1" t="s">
+        <v>511</v>
+      </c>
+      <c r="V1" t="s">
+        <v>512</v>
+      </c>
+      <c r="W1" t="s">
+        <v>513</v>
+      </c>
+      <c r="X1" t="s">
         <v>514</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>515</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>516</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>517</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>518</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>519</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>520</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>521</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>522</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>523</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>524</v>
       </c>
       <c r="AF1" t="s">
         <v>444</v>
       </c>
       <c r="AG1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AH1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AI1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AJ1" t="s">
         <v>53</v>
@@ -21050,91 +21170,91 @@
         <v>86</v>
       </c>
       <c r="G2" t="s">
+        <v>525</v>
+      </c>
+      <c r="H2" t="s">
+        <v>526</v>
+      </c>
+      <c r="I2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J2" t="s">
         <v>528</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>529</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>530</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>531</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>532</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>533</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>534</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>535</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>536</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>537</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
+        <v>473</v>
+      </c>
+      <c r="U2" t="s">
         <v>538</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
         <v>539</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>540</v>
       </c>
-      <c r="T2" t="s">
-        <v>476</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>541</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>542</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>543</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>544</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>545</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>546</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>547</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AE2" t="s">
         <v>548</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>549</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AG2" t="s">
         <v>550</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
         <v>551</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>552</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>553</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>554</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>555</v>
       </c>
       <c r="AJ2" t="s">
         <v>116</v>
@@ -21684,15 +21804,15 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2DB724-21BC-4C82-9764-0B6CA79BB3C3}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -21712,61 +21832,79 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M1" t="s">
+        <v>349</v>
+      </c>
+      <c r="N1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O1" t="s">
+        <v>351</v>
+      </c>
+      <c r="P1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>346</v>
+      </c>
+      <c r="R1" t="s">
+        <v>347</v>
+      </c>
+      <c r="S1" t="s">
+        <v>348</v>
+      </c>
+      <c r="T1" t="s">
+        <v>444</v>
+      </c>
+      <c r="U1" t="s">
+        <v>445</v>
+      </c>
+      <c r="V1" t="s">
+        <v>446</v>
+      </c>
+      <c r="W1" t="s">
+        <v>447</v>
+      </c>
+      <c r="X1" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y1" t="s">
         <v>441</v>
       </c>
-      <c r="H1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I1" t="s">
-        <v>335</v>
-      </c>
-      <c r="J1" t="s">
-        <v>336</v>
-      </c>
-      <c r="K1" t="s">
-        <v>243</v>
-      </c>
-      <c r="L1" t="s">
-        <v>349</v>
-      </c>
-      <c r="M1" t="s">
-        <v>350</v>
-      </c>
-      <c r="N1" t="s">
-        <v>351</v>
-      </c>
-      <c r="O1" t="s">
-        <v>345</v>
-      </c>
-      <c r="P1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>347</v>
-      </c>
-      <c r="R1" t="s">
-        <v>348</v>
-      </c>
-      <c r="S1" t="s">
-        <v>444</v>
-      </c>
-      <c r="T1" t="s">
-        <v>445</v>
-      </c>
-      <c r="U1" t="s">
-        <v>446</v>
-      </c>
-      <c r="V1" t="s">
-        <v>447</v>
-      </c>
-      <c r="W1" t="s">
-        <v>448</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AD1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -21786,137 +21924,155 @@
         <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>452</v>
+        <v>644</v>
       </c>
       <c r="H2" t="s">
+        <v>645</v>
+      </c>
+      <c r="I2" t="s">
         <v>449</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>450</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>451</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>553</v>
+      </c>
+      <c r="M2" t="s">
+        <v>554</v>
+      </c>
+      <c r="N2" t="s">
+        <v>555</v>
+      </c>
+      <c r="O2" t="s">
         <v>556</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>557</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>558</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>559</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>560</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>561</v>
       </c>
-      <c r="Q2" t="s">
-        <v>562</v>
-      </c>
-      <c r="R2" t="s">
-        <v>563</v>
-      </c>
-      <c r="S2" t="s">
-        <v>564</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>646</v>
+      </c>
+      <c r="V2" t="s">
+        <v>647</v>
+      </c>
+      <c r="W2" t="s">
+        <v>459</v>
+      </c>
+      <c r="X2" t="s">
         <v>460</v>
       </c>
-      <c r="U2" t="s">
-        <v>461</v>
-      </c>
-      <c r="V2" t="s">
-        <v>462</v>
-      </c>
-      <c r="W2" t="s">
-        <v>463</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>649</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>651</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -31201,73 +31357,73 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>461</v>
+      </c>
+      <c r="H1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J1" t="s">
         <v>464</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>465</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>466</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>477</v>
+      </c>
+      <c r="N1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O1" t="s">
+        <v>479</v>
+      </c>
+      <c r="P1" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>481</v>
+      </c>
+      <c r="R1" t="s">
+        <v>482</v>
+      </c>
+      <c r="S1" t="s">
         <v>467</v>
-      </c>
-      <c r="K1" t="s">
-        <v>468</v>
-      </c>
-      <c r="L1" t="s">
-        <v>469</v>
-      </c>
-      <c r="M1" t="s">
-        <v>480</v>
-      </c>
-      <c r="N1" t="s">
-        <v>481</v>
-      </c>
-      <c r="O1" t="s">
-        <v>482</v>
-      </c>
-      <c r="P1" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>484</v>
-      </c>
-      <c r="R1" t="s">
-        <v>485</v>
-      </c>
-      <c r="S1" t="s">
-        <v>470</v>
       </c>
       <c r="T1" t="s">
         <v>442</v>
       </c>
       <c r="U1" t="s">
+        <v>588</v>
+      </c>
+      <c r="V1" t="s">
+        <v>518</v>
+      </c>
+      <c r="W1" t="s">
+        <v>519</v>
+      </c>
+      <c r="X1" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>589</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA1" t="s">
         <v>591</v>
       </c>
-      <c r="V1" t="s">
-        <v>521</v>
-      </c>
-      <c r="W1" t="s">
-        <v>522</v>
-      </c>
-      <c r="X1" t="s">
-        <v>523</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>592</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>593</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>594</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>596</v>
       </c>
       <c r="AD1" t="s">
         <v>444</v>
@@ -31299,73 +31455,73 @@
         <v>449</v>
       </c>
       <c r="H2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I2" t="s">
         <v>450</v>
       </c>
       <c r="J2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K2" t="s">
         <v>451</v>
       </c>
       <c r="L2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M2" t="s">
+        <v>488</v>
+      </c>
+      <c r="N2" t="s">
+        <v>489</v>
+      </c>
+      <c r="O2" t="s">
+        <v>490</v>
+      </c>
+      <c r="P2" t="s">
         <v>491</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>492</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>493</v>
       </c>
-      <c r="P2" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>495</v>
-      </c>
-      <c r="R2" t="s">
-        <v>496</v>
-      </c>
       <c r="S2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="T2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="U2" t="s">
+        <v>594</v>
+      </c>
+      <c r="V2" t="s">
+        <v>553</v>
+      </c>
+      <c r="W2" t="s">
+        <v>554</v>
+      </c>
+      <c r="X2" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>565</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AD2" t="s">
         <v>597</v>
-      </c>
-      <c r="V2" t="s">
-        <v>556</v>
-      </c>
-      <c r="W2" t="s">
-        <v>557</v>
-      </c>
-      <c r="X2" t="s">
-        <v>558</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>559</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>598</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>599</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>560</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>600</v>
       </c>
       <c r="AE2" t="s">
         <v>116</v>
@@ -31414,15 +31570,15 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9F0C65-B01E-4927-9B7A-8CA916F99F92}">
   <sheetPr codeName="Sheet34"/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -31442,61 +31598,79 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" t="s">
+        <v>562</v>
+      </c>
+      <c r="O1" t="s">
+        <v>243</v>
+      </c>
+      <c r="P1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>350</v>
+      </c>
+      <c r="R1" t="s">
+        <v>351</v>
+      </c>
+      <c r="S1" t="s">
+        <v>352</v>
+      </c>
+      <c r="T1" t="s">
+        <v>345</v>
+      </c>
+      <c r="U1" t="s">
+        <v>448</v>
+      </c>
+      <c r="V1" t="s">
+        <v>447</v>
+      </c>
+      <c r="W1" t="s">
+        <v>446</v>
+      </c>
+      <c r="X1" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y1" t="s">
         <v>441</v>
       </c>
-      <c r="H1" t="s">
-        <v>442</v>
-      </c>
-      <c r="I1" t="s">
-        <v>334</v>
-      </c>
-      <c r="J1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L1" t="s">
-        <v>337</v>
-      </c>
-      <c r="M1" t="s">
-        <v>565</v>
-      </c>
-      <c r="N1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O1" t="s">
-        <v>349</v>
-      </c>
-      <c r="P1" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>351</v>
-      </c>
-      <c r="R1" t="s">
-        <v>352</v>
-      </c>
-      <c r="S1" t="s">
-        <v>345</v>
-      </c>
-      <c r="T1" t="s">
-        <v>448</v>
-      </c>
-      <c r="U1" t="s">
-        <v>447</v>
-      </c>
-      <c r="V1" t="s">
-        <v>446</v>
-      </c>
-      <c r="W1" t="s">
-        <v>445</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AD1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -31516,57 +31690,75 @@
         <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>475</v>
+        <v>563</v>
       </c>
       <c r="H2" t="s">
+        <v>644</v>
+      </c>
+      <c r="I2" t="s">
+        <v>645</v>
+      </c>
+      <c r="J2" t="s">
+        <v>449</v>
+      </c>
+      <c r="K2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L2" t="s">
+        <v>451</v>
+      </c>
+      <c r="M2" t="s">
+        <v>488</v>
+      </c>
+      <c r="N2" t="s">
+        <v>564</v>
+      </c>
+      <c r="O2" t="s">
+        <v>553</v>
+      </c>
+      <c r="P2" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>555</v>
+      </c>
+      <c r="R2" t="s">
+        <v>556</v>
+      </c>
+      <c r="S2" t="s">
+        <v>565</v>
+      </c>
+      <c r="T2" t="s">
+        <v>557</v>
+      </c>
+      <c r="U2" t="s">
         <v>566</v>
       </c>
-      <c r="I2" t="s">
-        <v>449</v>
-      </c>
-      <c r="J2" t="s">
-        <v>450</v>
-      </c>
-      <c r="K2" t="s">
-        <v>451</v>
-      </c>
-      <c r="L2" t="s">
-        <v>491</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="V2" t="s">
         <v>567</v>
       </c>
-      <c r="N2" t="s">
-        <v>556</v>
-      </c>
-      <c r="O2" t="s">
-        <v>557</v>
-      </c>
-      <c r="P2" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>559</v>
-      </c>
-      <c r="R2" t="s">
-        <v>568</v>
-      </c>
-      <c r="S2" t="s">
-        <v>560</v>
-      </c>
-      <c r="T2" t="s">
-        <v>569</v>
-      </c>
-      <c r="U2" t="s">
-        <v>570</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>273</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>272</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>649</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>652</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>651</v>
+      </c>
+      <c r="AD2" t="s">
         <v>116</v>
       </c>
     </row>
@@ -31607,49 +31799,49 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I1" t="s">
         <v>223</v>
       </c>
       <c r="J1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="K1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M1" t="s">
         <v>260</v>
       </c>
       <c r="N1" t="s">
+        <v>573</v>
+      </c>
+      <c r="O1" t="s">
+        <v>574</v>
+      </c>
+      <c r="P1" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q1" t="s">
         <v>576</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>577</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>578</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>579</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>580</v>
-      </c>
-      <c r="S1" t="s">
-        <v>581</v>
-      </c>
-      <c r="T1" t="s">
-        <v>582</v>
-      </c>
-      <c r="U1" t="s">
-        <v>583</v>
       </c>
       <c r="V1" t="s">
         <v>53</v>
@@ -31675,22 +31867,22 @@
         <v>86</v>
       </c>
       <c r="G2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H2" t="s">
+        <v>582</v>
+      </c>
+      <c r="I2" t="s">
+        <v>583</v>
+      </c>
+      <c r="J2" t="s">
         <v>584</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>585</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>586</v>
-      </c>
-      <c r="J2" t="s">
-        <v>587</v>
-      </c>
-      <c r="K2" t="s">
-        <v>588</v>
-      </c>
-      <c r="L2" t="s">
-        <v>589</v>
       </c>
       <c r="M2" t="s">
         <v>331</v>
@@ -31699,7 +31891,7 @@
         <v>331</v>
       </c>
       <c r="U2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="V2" t="s">
         <v>116</v>
@@ -32330,40 +32522,40 @@
         <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I1" t="s">
         <v>253</v>
       </c>
       <c r="J1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="K1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="M1" t="s">
+        <v>605</v>
+      </c>
+      <c r="N1" t="s">
+        <v>606</v>
+      </c>
+      <c r="O1" t="s">
+        <v>607</v>
+      </c>
+      <c r="P1" t="s">
         <v>608</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>609</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>610</v>
-      </c>
-      <c r="P1" t="s">
-        <v>611</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>612</v>
-      </c>
-      <c r="R1" t="s">
-        <v>613</v>
       </c>
       <c r="S1" t="s">
         <v>53</v>
@@ -32392,37 +32584,37 @@
         <v>237</v>
       </c>
       <c r="H2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J2" t="s">
+        <v>545</v>
+      </c>
+      <c r="K2" t="s">
+        <v>557</v>
+      </c>
+      <c r="L2" t="s">
+        <v>612</v>
+      </c>
+      <c r="M2" t="s">
+        <v>613</v>
+      </c>
+      <c r="N2" t="s">
         <v>614</v>
       </c>
-      <c r="J2" t="s">
-        <v>548</v>
-      </c>
-      <c r="K2" t="s">
-        <v>560</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>615</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>616</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>617</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>618</v>
-      </c>
-      <c r="P2" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>620</v>
-      </c>
-      <c r="R2" t="s">
-        <v>621</v>
       </c>
       <c r="S2" t="s">
         <v>116</v>
